--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="53.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="53.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="45.989887640449446"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2016-08-14T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1211249</v>
       </c>
@@ -1526,120 +2045,41 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>36768</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4526459</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1214978</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR BOTTOM RAIL BENT 12" (DOOR UN LOCK)</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36769</v>
@@ -1750,232 +2190,74 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>36769</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>DFSU7594211</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1214982</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>36769</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>DFSU7594211</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1214982</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL PUSH IN 30"X24"</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>36771</v>
@@ -2087,7 +2369,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>36772</v>
@@ -2199,7 +2481,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>36773</v>
@@ -2311,7 +2593,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>36774</v>
@@ -2422,120 +2704,41 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>36774</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1655303</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>KOTA</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>9/206/229</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>827</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1215988</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>36777</v>
@@ -2646,120 +2849,41 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>36777</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1185703</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J21" s="0" t="inlineStr">
-        <is>
-          <t>HANJIN HOCHIMINH.377.2016/2251</t>
-        </is>
-      </c>
-      <c r="K21" s="0" t="inlineStr">
-        <is>
-          <t>2016/2036</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="0" t="n">
-        <v>1216208</v>
-      </c>
-      <c r="W21" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y21" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>36778</v>
@@ -2870,232 +2994,74 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>36778</v>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1457252</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K23" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L23" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N23" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="0" t="n">
-        <v>1216209</v>
-      </c>
-      <c r="W23" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y23" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>36778</v>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1457252</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K24" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="d">
-        <v>2016-08-29T00:00:00</v>
-      </c>
-      <c r="N24" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0" t="n">
-        <v>826</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="0" t="n">
-        <v>1216209</v>
-      </c>
-      <c r="W24" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>36779</v>
@@ -3207,7 +3173,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>36787</v>
@@ -3318,120 +3284,41 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>36787</v>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>DRYU9141131</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I27" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J27" s="0" t="inlineStr">
-        <is>
-          <t>HANSA CALYPSO</t>
-        </is>
-      </c>
-      <c r="K27" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M27" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N27" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="0" t="n">
-        <v>1216579</v>
-      </c>
-      <c r="W27" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y27" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36741</v>
@@ -3543,7 +3430,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>36742</v>
@@ -3654,344 +3541,107 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>36742</v>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1387941</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J30" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K30" s="0" t="inlineStr">
-        <is>
-          <t>2016/2147</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N30" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0"/>
-      <c r="P30" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="0" t="n">
-        <v>1212307</v>
-      </c>
-      <c r="W30" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>36742</v>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1387941</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="inlineStr">
-        <is>
-          <t>2016/2147</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
       <c r="O31" s="0"/>
-      <c r="P31" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="0" t="n">
-        <v>1212307</v>
-      </c>
-      <c r="W31" s="0" t="inlineStr">
-        <is>
-          <t>RAILS-(RAILS)</t>
-        </is>
-      </c>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>Front bottom rail-(Front bottom rail)</t>
-        </is>
-      </c>
-      <c r="Y31" s="0" t="inlineStr">
-        <is>
           <t>FRONT BOTTOM RAIL CRACKET 6" AT 2 PLASE,</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>36742</v>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1387941</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I32" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K32" s="0" t="inlineStr">
-        <is>
-          <t>2016/2147</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M32" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="0" t="n">
-        <v>1212307</v>
-      </c>
-      <c r="W32" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
-        <is>
           <t>RIGHT SIDE PANEL CUT 2",</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>36743</v>
@@ -4102,120 +3752,41 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>36743</v>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>TGHU9425066</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G34" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I34" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K34" s="0" t="inlineStr">
-        <is>
-          <t>2016/2118</t>
-        </is>
-      </c>
-      <c r="L34" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N34" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
       <c r="O34" s="0"/>
-      <c r="P34" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="0" t="n">
-        <v>1212323</v>
-      </c>
-      <c r="W34" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>Left side panel-(Left side panel)</t>
-        </is>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
-        <is>
           <t>LEFT SIDE PANEL PATCH 1 PLASE,</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>36744</v>
@@ -4326,344 +3897,107 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>36744</v>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>SEGU4127522</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K36" s="0" t="inlineStr">
-        <is>
-          <t>2016/2022</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="0" t="n">
-        <v>1212351</v>
-      </c>
-      <c r="W36" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y36" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>36744</v>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>SEGU4127522</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I37" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K37" s="0" t="inlineStr">
-        <is>
-          <t>2016/2022</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="0" t="n">
-        <v>1212351</v>
-      </c>
-      <c r="W37" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
-        </is>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL HOLE 8"X6"</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>36744</v>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>SEGU4127522</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA0063/2016/1974</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>2016/2022</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N38" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
       <c r="O38" s="0"/>
-      <c r="P38" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="0" t="n">
-        <v>1212351</v>
-      </c>
-      <c r="W38" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR HANDLE BENT 1 PCS,</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>36745</v>
@@ -4775,7 +4109,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>36746</v>
@@ -4886,120 +4220,41 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>36746</v>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1431279</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I41" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
-        </is>
-      </c>
-      <c r="K41" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N41" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="0" t="n">
-        <v>1212447</v>
-      </c>
-      <c r="W41" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>36747</v>
@@ -5110,344 +4365,107 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>36747</v>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1517238</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I43" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J43" s="0" t="inlineStr">
-        <is>
-          <t>ALTONIA</t>
-        </is>
-      </c>
-      <c r="K43" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M43" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N43" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="0" t="n">
-        <v>1212462</v>
-      </c>
-      <c r="W43" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>36747</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1517238</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>ALTONIA</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M44" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
       <c r="O44" s="0"/>
-      <c r="P44" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="0" t="n">
-        <v>1212462</v>
-      </c>
-      <c r="W44" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CUT 6"</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>36747</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1517238</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>ALTONIA</t>
-        </is>
-      </c>
-      <c r="K45" s="0" t="inlineStr">
-        <is>
-          <t>395/2016</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M45" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N45" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="0" t="n">
-        <v>1212462</v>
-      </c>
-      <c r="W45" s="0" t="inlineStr">
-        <is>
-          <t>RAILS-(RAILS)</t>
-        </is>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
-        </is>
-      </c>
-      <c r="Y45" s="0" t="inlineStr">
-        <is>
           <t>FRONT  BOTTOM RAIL CRACKED 6'</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>36748</v>
@@ -5558,120 +4576,41 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>36748</v>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>UETU5024286</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M47" s="4" t="d">
-        <v>2016-08-17T00:00:00</v>
-      </c>
-      <c r="N47" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0" t="n">
-        <v>838</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="0" t="n">
-        <v>1212463</v>
-      </c>
-      <c r="W47" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y47" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL I/R 8" X 4"</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>36749</v>
@@ -5783,7 +4722,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>36750</v>
@@ -5895,7 +4834,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>36751</v>
@@ -6006,120 +4945,41 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>36751</v>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>DRYU4560536</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I51" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J51" s="0" t="inlineStr">
-        <is>
-          <t>HANJIN HOCHIMINH</t>
-        </is>
-      </c>
-      <c r="K51" s="0" t="inlineStr">
-        <is>
-          <t>00/2016</t>
-        </is>
-      </c>
-      <c r="L51" s="0" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="M51" s="4" t="d">
-        <v>2016-08-21T00:00:00</v>
-      </c>
-      <c r="N51" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
       <c r="O51" s="0"/>
-      <c r="P51" s="0" t="n">
-        <v>834</v>
-      </c>
-      <c r="Q51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="0" t="n">
-        <v>1213765</v>
-      </c>
-      <c r="W51" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y51" s="0" t="inlineStr">
-        <is>
           <t>FRONT PANEL DENT 25" X 20" </t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y51" s="0"/>
+      <c r="Z51" s="0"/>
+      <c r="AA51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>36757</v>
@@ -6207,7 +5067,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>36758</v>
@@ -6295,7 +5155,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>36759</v>
@@ -6407,7 +5267,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>36760</v>
@@ -6518,120 +5378,41 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>36760</v>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>HJCU1695815</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I56" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>X-PRESS NUPTSE.023.2016/2140</t>
-        </is>
-      </c>
-      <c r="K56" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="N56" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="0" t="n">
-        <v>1214883</v>
-      </c>
-      <c r="W56" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y56" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>36762</v>
@@ -6742,120 +5523,41 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>36762</v>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6711547</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I58" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>SINAR SANGIR0301/2016/2307</t>
-        </is>
-      </c>
-      <c r="K58" s="0" t="inlineStr">
-        <is>
-          <t>2016/2140</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="d">
-        <v>2016-08-24T00:00:00</v>
-      </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0"/>
-      <c r="P58" s="0" t="n">
-        <v>831</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="0" t="n">
-        <v>1214895</v>
-      </c>
-      <c r="W58" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>36763</v>
@@ -6967,7 +5669,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>36788</v>
@@ -7078,232 +5780,74 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>36788</v>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6202529</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G61" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I61" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J61" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K61" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L61" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M61" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N61" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
       <c r="O61" s="0"/>
-      <c r="P61" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="0" t="n">
-        <v>1216580</v>
-      </c>
-      <c r="W61" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0"/>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y61" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK &amp; SCRATCH,</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y61" s="0"/>
+      <c r="Z61" s="0"/>
+      <c r="AA61" s="0"/>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>36788</v>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>TEMU6202529</t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G62" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H62" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I62" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J62" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K62" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L62" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M62" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N62" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
       <c r="O62" s="0"/>
-      <c r="P62" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="0" t="n">
-        <v>1216580</v>
-      </c>
-      <c r="W62" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0"/>
       <c r="X62" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
-        </is>
-      </c>
-      <c r="Y62" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH</t>
         </is>
       </c>
-      <c r="Z62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y62" s="0"/>
+      <c r="Z62" s="0"/>
+      <c r="AA62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>36789</v>
@@ -7414,120 +5958,41 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>36789</v>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>GESU6935778</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I64" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J64" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K64" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L64" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M64" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N64" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
       <c r="O64" s="0"/>
-      <c r="P64" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="0" t="n">
-        <v>1216581</v>
-      </c>
-      <c r="W64" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y64" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>36790</v>
@@ -7638,120 +6103,41 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>36790</v>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>SEGU4116472</t>
-        </is>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J66" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K66" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L66" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M66" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N66" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="0"/>
       <c r="O66" s="0"/>
-      <c r="P66" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="0" t="n">
-        <v>1216596</v>
-      </c>
-      <c r="W66" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0"/>
       <c r="X66" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y66" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y66" s="0"/>
+      <c r="Z66" s="0"/>
+      <c r="AA66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>36796</v>
@@ -7863,7 +6249,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>36797</v>
@@ -7974,232 +6360,74 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>36797</v>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4935539</t>
-        </is>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G69" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I69" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K69" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L69" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M69" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N69" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
       <c r="O69" s="0"/>
-      <c r="P69" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="0" t="n">
-        <v>1216693</v>
-      </c>
-      <c r="W69" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y69" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL INK</t>
         </is>
       </c>
-      <c r="Z69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0"/>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>36797</v>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4935539</t>
-        </is>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G70" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H70" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I70" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J70" s="0" t="inlineStr">
-        <is>
-          <t>H RICKMERS</t>
-        </is>
-      </c>
-      <c r="K70" s="0" t="inlineStr">
-        <is>
-          <t>2014/1185</t>
-        </is>
-      </c>
-      <c r="L70" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="d">
-        <v>2016-08-30T00:00:00</v>
-      </c>
-      <c r="N70" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
       <c r="O70" s="0"/>
-      <c r="P70" s="0" t="n">
-        <v>825</v>
-      </c>
-      <c r="Q70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
       <c r="S70" s="0"/>
       <c r="T70" s="0"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="0" t="n">
-        <v>1216693</v>
-      </c>
-      <c r="W70" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0"/>
       <c r="X70" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y70" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR INNER GASKET CUT 3"</t>
         </is>
       </c>
-      <c r="Z70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y70" s="0"/>
+      <c r="Z70" s="0"/>
+      <c r="AA70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>36798</v>
@@ -8310,120 +6538,41 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>36798</v>
-      </c>
-      <c r="C72" s="0" t="inlineStr">
-        <is>
-          <t>DRYU9616915</t>
-        </is>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E72" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G72" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H72" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I72" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J72" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BINTANG</t>
-        </is>
-      </c>
-      <c r="K72" s="0" t="inlineStr">
-        <is>
-          <t>2229/2016</t>
-        </is>
-      </c>
-      <c r="L72" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M72" s="4" t="d">
-        <v>2016-08-28T00:00:00</v>
-      </c>
-      <c r="N72" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
       <c r="O72" s="0"/>
-      <c r="P72" s="0" t="n">
-        <v>827</v>
-      </c>
-      <c r="Q72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
       <c r="S72" s="0"/>
       <c r="T72" s="0"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="0" t="n">
-        <v>1216701</v>
-      </c>
-      <c r="W72" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0"/>
       <c r="X72" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y72" s="0" t="inlineStr">
-        <is>
           <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
-      <c r="Z72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y72" s="0"/>
+      <c r="Z72" s="0"/>
+      <c r="AA72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>36805</v>
@@ -8534,232 +6683,74 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>36805</v>
-      </c>
-      <c r="C74" s="0" t="inlineStr">
-        <is>
-          <t>HJCU2067027</t>
-        </is>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E74" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G74" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H74" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I74" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J74" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA</t>
-        </is>
-      </c>
-      <c r="K74" s="0" t="inlineStr">
-        <is>
-          <t>2317/2016</t>
-        </is>
-      </c>
-      <c r="L74" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M74" s="4" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="N74" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A74" s="0"/>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
+      <c r="K74" s="0"/>
+      <c r="L74" s="0"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="0"/>
       <c r="O74" s="0"/>
-      <c r="P74" s="0" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
       <c r="S74" s="0"/>
       <c r="T74" s="0"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="0" t="n">
-        <v>1217061</v>
-      </c>
-      <c r="W74" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V74" s="0"/>
+      <c r="W74" s="0"/>
       <c r="X74" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y74" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL HOLE 2'X01'</t>
         </is>
       </c>
-      <c r="Z74" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA74" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB74" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y74" s="0"/>
+      <c r="Z74" s="0"/>
+      <c r="AA74" s="0"/>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>36805</v>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>HJCU2067027</t>
-        </is>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>HSB</t>
-        </is>
-      </c>
-      <c r="G75" s="0" t="inlineStr">
-        <is>
-          <t>HJB</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I75" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="J75" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BUANA</t>
-        </is>
-      </c>
-      <c r="K75" s="0" t="inlineStr">
-        <is>
-          <t>2317/2016</t>
-        </is>
-      </c>
-      <c r="L75" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="M75" s="4" t="d">
-        <v>2016-08-31T00:00:00</v>
-      </c>
-      <c r="N75" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="0"/>
       <c r="O75" s="0"/>
-      <c r="P75" s="0" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="0" t="n">
-        <v>1217061</v>
-      </c>
-      <c r="W75" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V75" s="0"/>
+      <c r="W75" s="0"/>
       <c r="X75" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y75" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
         </is>
       </c>
-      <c r="Z75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y75" s="0"/>
+      <c r="Z75" s="0"/>
+      <c r="AA75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>36806</v>
@@ -8871,7 +6862,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>36809</v>

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="252.78988764044948" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="53.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="45.989887640449446"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -2045,37 +2045,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM RAIL BENT 12" (DOOR UN LOCK)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM RAIL BENT 12\" (DOOR UN LOCK)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2190,70 +2169,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL PUSH IN 30"X24"</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSH IN 30\"X24\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -2704,37 +2641,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -2849,37 +2765,16 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
@@ -2994,70 +2889,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
-        </is>
-      </c>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)</t>
-        </is>
-      </c>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -3284,37 +3137,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3541,103 +3373,40 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="inlineStr">
-        <is>
-          <t>FRONT BOTTOM RAIL CRACKET 6" AT 2 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Front bottom rail-(Front bottom rail)", "FRONT BOTTOM RAIL CRACKET 6\" AT 2 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT SIDE PANEL CUT 2",</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\",", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -3752,37 +3521,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0" t="inlineStr">
-        <is>
-          <t>LEFT SIDE PANEL PATCH 1 PLASE,</t>
-        </is>
-      </c>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL PATCH 1 PLASE,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -3897,103 +3645,40 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL HOLE 8"X6"</t>
-        </is>
-      </c>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL HOLE 8\"X6\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR HANDLE BENT 1 PCS,</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HANDLE BENT 1 PCS,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -4220,37 +3905,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4365,103 +4029,40 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CUT 6"</t>
-        </is>
-      </c>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CUT 6\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FRONT  BOTTOM RAIL CRACKED 6'</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "FRONT  BOTTOM RAIL CRACKED 6'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -4576,37 +4177,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL I/R 8" X 4"</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL I/R 8\" X 4\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -4945,37 +4525,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0" t="inlineStr">
-        <is>
-          <t>FRONT PANEL DENT 25" X 20" </t>
-        </is>
-      </c>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT PANEL DENT 25\" X 20\" ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
@@ -5378,37 +4937,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0"/>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
-      <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="0"/>
-      <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
-      <c r="R56" s="0"/>
-      <c r="S56" s="0"/>
-      <c r="T56" s="0"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y56" s="0"/>
-      <c r="Z56" s="0"/>
-      <c r="AA56" s="0"/>
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
@@ -5523,37 +5061,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
@@ -5780,70 +5297,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK &amp; SCRATCH,</t>
-        </is>
-      </c>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK &amp; SCRATCH,", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
-      <c r="X62" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH</t>
-        </is>
-      </c>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AA62" s="0"/>
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
@@ -5958,37 +5433,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
-      <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0"/>
-      <c r="X64" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y64" s="0"/>
-      <c r="Z64" s="0"/>
-      <c r="AA64" s="0"/>
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
@@ -6103,37 +5557,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0"/>
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
-      <c r="L66" s="0"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="0"/>
-      <c r="O66" s="0"/>
-      <c r="P66" s="0"/>
-      <c r="Q66" s="0"/>
-      <c r="R66" s="0"/>
-      <c r="S66" s="0"/>
-      <c r="T66" s="0"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="0"/>
-      <c r="W66" s="0"/>
-      <c r="X66" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y66" s="0"/>
-      <c r="Z66" s="0"/>
-      <c r="AA66" s="0"/>
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
@@ -6360,70 +5793,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
-      <c r="R69" s="0"/>
-      <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL INK</t>
-        </is>
-      </c>
-      <c r="Y69" s="0"/>
-      <c r="Z69" s="0"/>
-      <c r="AA69" s="0"/>
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-      <c r="R70" s="0"/>
-      <c r="S70" s="0"/>
-      <c r="T70" s="0"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR INNER GASKET CUT 3"</t>
-        </is>
-      </c>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR INNER GASKET CUT 3\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
@@ -6538,37 +5929,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
-      <c r="R72" s="0"/>
-      <c r="S72" s="0"/>
-      <c r="T72" s="0"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
@@ -6683,70 +6053,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
-      <c r="P74" s="0"/>
-      <c r="Q74" s="0"/>
-      <c r="R74" s="0"/>
-      <c r="S74" s="0"/>
-      <c r="T74" s="0"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="0"/>
-      <c r="W74" s="0"/>
-      <c r="X74" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL HOLE 2'X01'</t>
-        </is>
-      </c>
-      <c r="Y74" s="0"/>
-      <c r="Z74" s="0"/>
-      <c r="AA74" s="0"/>
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL HOLE 2'X01'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-      <c r="L75" s="0"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="0"/>
-      <c r="O75" s="0"/>
-      <c r="P75" s="0"/>
-      <c r="Q75" s="0"/>
-      <c r="R75" s="0"/>
-      <c r="S75" s="0"/>
-      <c r="T75" s="0"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="0"/>
-      <c r="W75" s="0"/>
-      <c r="X75" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y75" s="0"/>
-      <c r="Z75" s="0"/>
-      <c r="AA75" s="0"/>
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="252.78988764044948" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,8 +1331,8 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="45.989887640449446"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="53.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -2050,9 +2050,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM RAIL BENT 12\" (DOOR UN LOCK)", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM RAIL BENT 12" (DOOR UN LOCK)</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2174,9 +2220,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2186,9 +2278,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL PUSH IN 30\"X24\"", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL PUSH IN 30"X24"</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2646,9 +2784,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2770,9 +2954,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2894,9 +3124,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN", "", "", ""]</t>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2906,9 +3182,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)", "", "", ""]</t>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR HINGE PIN BROKEN 02 PCS( DOOR NOT LOCKED)</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3142,9 +3464,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3378,9 +3746,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS 2 PCS &amp; WOODEN 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3390,9 +3804,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Front bottom rail-(Front bottom rail)", "FRONT BOTTOM RAIL CRACKET 6\" AT 2 PLASE,", "", "", ""]</t>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>Front bottom rail-(Front bottom rail)</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>FRONT BOTTOM RAIL CRACKET 6" AT 2 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3402,9 +3862,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT SIDE PANEL CUT 2\",", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE PANEL CUT 2",</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3526,9 +4032,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Left side panel-(Left side panel)", "LEFT SIDE PANEL PATCH 1 PLASE,", "", "", ""]</t>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>Left side panel-(Left side panel)</t>
+        </is>
+      </c>
+      <c r="Y34" s="0" t="inlineStr">
+        <is>
+          <t>LEFT SIDE PANEL PATCH 1 PLASE,</t>
+        </is>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3650,9 +4202,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3662,9 +4260,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Roof panel-(Roof panel)", "ROOF PANEL HOLE 8\"X6\"", "", "", ""]</t>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>Roof panel-(Roof panel)</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL HOLE 8"X6"</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3674,9 +4318,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR HANDLE BENT 1 PCS,", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR HANDLE BENT 1 PCS,</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3910,9 +4600,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4034,9 +4770,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4046,9 +4828,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CUT 6\"", "", "", ""]</t>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X44" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y44" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CUT 6"</t>
+        </is>
+      </c>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4058,9 +4886,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "FRONT  BOTTOM RAIL CRACKED 6'", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>FRONT  BOTTOM RAIL CRACKED 6'</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4182,9 +5056,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL I/R 8\" X 4\"", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL I/R 8" X 4"</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4530,9 +5450,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT PANEL DENT 25\" X 20\" ", "", "", ""]</t>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X51" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y51" s="0" t="inlineStr">
+        <is>
+          <t>FRONT PANEL DENT 25" X 20" </t>
+        </is>
+      </c>
+      <c r="Z51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4942,9 +5908,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X56" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y56" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5066,9 +6078,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5302,9 +6360,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK &amp; SCRATCH,", "", "", ""]</t>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X61" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y61" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK &amp; SCRATCH,</t>
+        </is>
+      </c>
+      <c r="Z61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5314,9 +6418,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH", "", "", ""]</t>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X62" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y62" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD WOODEN 2 PCS &amp; BEDLY SCRATCH</t>
+        </is>
+      </c>
+      <c r="Z62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5438,9 +6588,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X64" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y64" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5562,9 +6758,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X66" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y66" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB66" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5798,9 +7040,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL INK", "", "", ""]</t>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X69" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y69" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL INK</t>
+        </is>
+      </c>
+      <c r="Z69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5810,9 +7098,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR INNER GASKET CUT 3\"", "", "", ""]</t>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X70" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y70" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR INNER GASKET CUT 3"</t>
+        </is>
+      </c>
+      <c r="Z70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5934,9 +7268,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERIOR PANEL DIRTY", "", "", ""]</t>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+      <c r="T72" s="0"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X72" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y72" s="0" t="inlineStr">
+        <is>
+          <t>INTERIOR PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6058,9 +7438,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL HOLE 2'X01'", "", "", ""]</t>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
+      <c r="K74" s="0"/>
+      <c r="L74" s="0"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
+      <c r="S74" s="0"/>
+      <c r="T74" s="0"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="0"/>
+      <c r="W74" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X74" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y74" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL HOLE 2'X01'</t>
+        </is>
+      </c>
+      <c r="Z74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB74" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6070,9 +7496,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PCS", "", "", ""]</t>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="0"/>
+      <c r="W75" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X75" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y75" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCK BAR BENT 01 PCS</t>
+        </is>
+      </c>
+      <c r="Z75" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA75" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB75" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
+++ b/reports/_HJB_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_58_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:40</t>
+          <t>Total number of containers:40</t>
         </is>
       </c>
     </row>
